--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>route</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Viridian Lake Loop</t>
+  </si>
+  <si>
+    <t>Vetrans - Kelly Loop</t>
   </si>
 </sst>
 </file>
@@ -948,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,6 +1491,29 @@
         <v>21</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="43">
   <si>
     <t>route</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Vetrans - Kelly Loop</t>
+  </si>
+  <si>
+    <t>Viridian - River Legacy East</t>
   </si>
 </sst>
 </file>
@@ -951,15 +954,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,6 +1517,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
   <si>
     <t>route</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Viridian - River Legacy East</t>
+  </si>
+  <si>
+    <t>Rosie</t>
+  </si>
+  <si>
+    <t>Dog</t>
   </si>
 </sst>
 </file>
@@ -954,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1226,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1243,7 +1249,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1255,10 +1261,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -1266,7 +1272,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1278,10 +1284,10 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -1358,7 +1364,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1373,15 +1379,15 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1396,15 +1402,15 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1427,7 +1433,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1450,7 +1456,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1468,12 +1474,12 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1491,12 +1497,12 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1514,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1540,7 +1546,33 @@
         <v>21</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:G26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
   <si>
     <t>route</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Dog</t>
+  </si>
+  <si>
+    <t>River Legacy North East</t>
+  </si>
+  <si>
+    <t>our</t>
   </si>
 </sst>
 </file>
@@ -960,15 +966,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1318,7 +1326,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1329,19 +1337,16 @@
       <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1364,7 +1369,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1382,12 +1387,12 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1402,15 +1407,15 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1425,15 +1430,15 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1456,7 +1461,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1479,7 +1484,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1502,7 +1507,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1520,12 +1525,12 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1548,7 +1553,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1569,9 +1574,37 @@
         <v>21</v>
       </c>
     </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:G26">
-    <sortCondition ref="A2:A26"/>
+  <sortState ref="A2:G28">
+    <sortCondition ref="A2:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="46">
   <si>
     <t>route</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Vandergriff Park</t>
   </si>
   <si>
-    <t>Veterans Park</t>
-  </si>
-  <si>
     <t>Villiage Creek</t>
   </si>
   <si>
@@ -159,7 +156,7 @@
     <t>River Legacy North East</t>
   </si>
   <si>
-    <t>our</t>
+    <t>Three Parks</t>
   </si>
 </sst>
 </file>
@@ -966,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1323,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1392,25 +1389,25 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1484,7 +1481,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1507,7 +1504,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1530,7 +1527,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1553,7 +1550,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1576,7 +1573,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1595,11 +1592,6 @@
       </c>
       <c r="G27" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="routes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="47">
   <si>
     <t>route</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Viridian Lake Loop</t>
   </si>
   <si>
-    <t>Vetrans - Kelly Loop</t>
-  </si>
-  <si>
     <t>Viridian - River Legacy East</t>
   </si>
   <si>
@@ -156,7 +153,13 @@
     <t>River Legacy North East</t>
   </si>
   <si>
-    <t>Three Parks</t>
+    <t>Vetrans Park</t>
+  </si>
+  <si>
+    <t>Four Parks</t>
+  </si>
+  <si>
+    <t>South Rush Creek Linear Park</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -963,15 +967,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
@@ -1323,7 +1327,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1389,53 +1393,50 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1450,15 +1451,15 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1481,7 +1482,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1496,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1504,7 +1505,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1519,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1527,7 +1528,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1545,12 +1546,12 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1573,24 +1574,47 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
         <v>21</v>
       </c>
     </row>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="49">
   <si>
     <t>route</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>South Rush Creek Linear Park</t>
+  </si>
+  <si>
+    <t>Green Oaks - Little Road</t>
+  </si>
+  <si>
+    <t>River Lagacy Shady</t>
   </si>
 </sst>
 </file>
@@ -967,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1043,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1158,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -1433,6 +1439,9 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1612,10 +1621,56 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -114,9 +114,6 @@
     <t>Both</t>
   </si>
   <si>
-    <t>Parks Mall</t>
-  </si>
-  <si>
     <t>Perkins Road</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>River Lagacy Shady</t>
+  </si>
+  <si>
+    <t>Parks Mall - Mixed</t>
   </si>
 </sst>
 </file>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1399,30 +1399,30 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -976,7 +976,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
   <si>
     <t>route</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Inside</t>
   </si>
   <si>
-    <t>Parks Mall - Mostly inside</t>
-  </si>
-  <si>
     <t>Both</t>
   </si>
   <si>
@@ -166,6 +163,12 @@
   </si>
   <si>
     <t>Parks Mall - Mixed</t>
+  </si>
+  <si>
+    <t>Parks Mall - 3 laps</t>
+  </si>
+  <si>
+    <t>Parks Mall - 4 laps</t>
   </si>
 </sst>
 </file>
@@ -973,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1244,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1287,20 +1290,20 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
       <c r="F14">
         <v>1</v>
       </c>
@@ -1308,32 +1311,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1344,16 +1347,19 @@
       <c r="D16" t="s">
         <v>9</v>
       </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1364,19 +1370,16 @@
       <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1399,76 +1402,76 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1483,15 +1486,15 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1506,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1514,7 +1517,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1537,7 +1540,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1552,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -1560,7 +1563,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1578,12 +1581,12 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1621,55 +1624,78 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="52">
   <si>
     <t xml:space="preserve">route</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">South Rush Creek Linear Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southwest Nature Preserve</t>
   </si>
   <si>
     <t xml:space="preserve">Stovall Park</t>
@@ -274,13 +277,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
@@ -863,25 +866,25 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="s">
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -893,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>10</v>
@@ -902,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>12</v>
@@ -916,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>10</v>
@@ -971,10 +974,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,9 +1020,32 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -280,10 +280,10 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
@@ -606,7 +606,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>12</v>
@@ -629,7 +629,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>41</v>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
   <si>
     <t xml:space="preserve">route</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vandergriff Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vandergriff Park – Highlands</t>
   </si>
   <si>
     <t xml:space="preserve">Vetrans Park</t>
@@ -277,13 +280,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
@@ -997,10 +1000,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,9 +1046,32 @@
         <v>11</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Vetrans Park</t>
   </si>
   <si>
-    <t xml:space="preserve">Villiage Creek</t>
+    <t xml:space="preserve">Village Creek Linear Park</t>
   </si>
   <si>
     <t xml:space="preserve">Viridian - River Legacy East</t>
@@ -283,10 +283,10 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -283,10 +283,10 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
@@ -816,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>41</v>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>12</v>
@@ -1000,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>12</v>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -169,7 +169,7 @@
     <t xml:space="preserve">Vandergriff Park – Highlands</t>
   </si>
   <si>
-    <t xml:space="preserve">Vetrans Park</t>
+    <t xml:space="preserve">Veterans Park</t>
   </si>
   <si>
     <t xml:space="preserve">Village Creek Linear Park</t>
@@ -254,13 +254,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -282,11 +286,11 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
@@ -425,7 +429,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>12</v>
@@ -724,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>12</v>
@@ -770,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>12</v>
@@ -793,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>12</v>
@@ -931,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>12</v>
@@ -954,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>12</v>
@@ -984,7 +988,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="0" t="s">

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="55">
   <si>
     <t xml:space="preserve">route</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">last_update</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corey Triangle</t>
   </si>
   <si>
@@ -70,6 +73,12 @@
     <t xml:space="preserve">Enchanted Lakes</t>
   </si>
   <si>
+    <t xml:space="preserve">North Green Oaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fish Creek Linear Park</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">America/Honolulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear</t>
   </si>
   <si>
     <t xml:space="preserve">Lako Road</t>
@@ -185,8 +191,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -254,8 +261,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,17 +295,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,350 +331,398 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>44117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
+      <c r="A7" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>19</v>
+      <c r="A8" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>12</v>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,160 +730,181 @@
         <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,252 +912,311 @@
         <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>23</v>
+      <c r="A25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>12</v>
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>12</v>
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>49</v>
+      <c r="A31" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>50</v>
+      <c r="A32" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>44117</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>43882</v>
       </c>
     </row>
   </sheetData>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
   <si>
     <t xml:space="preserve">route</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">Perkins Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pioneer Trail</t>
   </si>
   <si>
     <t xml:space="preserve">River Lagacy Shady</t>
@@ -295,13 +298,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
@@ -820,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>43882</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,10 +849,10 @@
         <v>12</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>43882</v>
@@ -872,10 +875,10 @@
         <v>12</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>43882</v>
@@ -927,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>43882</v>
@@ -935,50 +938,50 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="H25" s="1" t="n">
         <v>43882</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="B26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="1" t="n">
@@ -1005,32 +1008,32 @@
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>43882</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="s">
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="1" t="n">
@@ -1045,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>11</v>
@@ -1054,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>13</v>
@@ -1071,7 +1074,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>11</v>
@@ -1080,7 +1083,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>13</v>
@@ -1106,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>13</v>
@@ -1116,7 +1119,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -1132,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>13</v>
@@ -1142,7 +1145,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -1158,13 +1161,13 @@
         <v>12</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>44117</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,13 +1187,13 @@
         <v>12</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>18</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>43882</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,12 +1213,38 @@
         <v>12</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>18</v>
       </c>
       <c r="H35" s="1" t="n">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="1" t="n">
         <v>43882</v>
       </c>
     </row>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Pioneer Trail</t>
   </si>
   <si>
-    <t xml:space="preserve">River Lagacy Shady</t>
+    <t xml:space="preserve">River Legacy Shady</t>
   </si>
   <si>
     <t xml:space="preserve">River Legacy North East</t>
@@ -300,11 +300,11 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
@@ -927,13 +927,13 @@
         <v>12</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>43882</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="57">
   <si>
     <t xml:space="preserve">route</t>
   </si>
@@ -88,6 +88,9 @@
     <t xml:space="preserve">Green Oaks - Little Road</t>
   </si>
   <si>
+    <t xml:space="preserve">Figure 8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kahaluu Beach Park</t>
   </si>
   <si>
@@ -169,7 +172,7 @@
     <t xml:space="preserve">Stovall Park</t>
   </si>
   <si>
-    <t xml:space="preserve">Vadergriff Honda</t>
+    <t xml:space="preserve">Vandergriff Honda</t>
   </si>
   <si>
     <t xml:space="preserve">Vandergriff Park</t>
@@ -300,11 +303,11 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
@@ -514,24 +517,24 @@
         <v>1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>43882</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>12</v>
@@ -548,16 +551,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>12</v>
@@ -574,7 +577,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -600,16 +603,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>12</v>
@@ -626,16 +629,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>12</v>
@@ -652,16 +655,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>12</v>
@@ -678,7 +681,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>9</v>
@@ -690,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
@@ -704,19 +707,19 @@
     </row>
     <row r="16" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -730,7 +733,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>9</v>
@@ -742,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
@@ -756,19 +759,19 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
@@ -782,7 +785,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>9</v>
@@ -808,7 +811,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>9</v>
@@ -834,7 +837,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>9</v>
@@ -860,7 +863,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>9</v>
@@ -886,7 +889,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>9</v>
@@ -912,7 +915,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>9</v>
@@ -938,7 +941,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>9</v>
@@ -956,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>43882</v>
@@ -964,7 +967,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>9</v>
@@ -990,7 +993,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
@@ -1016,7 +1019,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
@@ -1042,7 +1045,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>9</v>
@@ -1068,13 +1071,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>11</v>
@@ -1094,7 +1097,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>9</v>
@@ -1120,7 +1123,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>9</v>
@@ -1146,7 +1149,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>9</v>
@@ -1172,7 +1175,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>9</v>
@@ -1198,7 +1201,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>9</v>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>9</v>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="59">
   <si>
     <t xml:space="preserve">route</t>
   </si>
@@ -85,6 +85,9 @@
     <t xml:space="preserve">Four Parks</t>
   </si>
   <si>
+    <t xml:space="preserve">reason</t>
+  </si>
+  <si>
     <t xml:space="preserve">Green Oaks - Little Road</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">Southwest Nature Preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trail muddy during rainy season</t>
   </si>
   <si>
     <t xml:space="preserve">Stovall Park</t>
@@ -301,18 +307,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="35.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,10 +503,13 @@
       <c r="H7" s="1" t="n">
         <v>43882</v>
       </c>
+      <c r="I7" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -517,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>44166</v>
@@ -525,16 +535,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>12</v>
@@ -551,16 +561,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>12</v>
@@ -577,7 +587,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -603,16 +613,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>12</v>
@@ -629,16 +639,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>12</v>
@@ -655,16 +665,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>12</v>
@@ -681,7 +691,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>9</v>
@@ -693,7 +703,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
@@ -707,19 +717,19 @@
     </row>
     <row r="16" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -733,7 +743,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>9</v>
@@ -745,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
@@ -759,19 +769,19 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
@@ -785,7 +795,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>9</v>
@@ -811,7 +821,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>9</v>
@@ -837,7 +847,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>9</v>
@@ -863,7 +873,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>9</v>
@@ -889,7 +899,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>9</v>
@@ -915,7 +925,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>9</v>
@@ -941,7 +951,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>9</v>
@@ -959,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>43882</v>
@@ -967,7 +977,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>9</v>
@@ -993,7 +1003,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
@@ -1019,7 +1029,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
@@ -1034,18 +1044,21 @@
         <v>12</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>43882</v>
+        <v>44183</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>9</v>
@@ -1071,7 +1084,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>9</v>
@@ -1097,7 +1110,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>9</v>
@@ -1123,7 +1136,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>9</v>
@@ -1149,7 +1162,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>9</v>
@@ -1175,7 +1188,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>9</v>
@@ -1201,7 +1214,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>9</v>
@@ -1227,7 +1240,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>9</v>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -309,15 +309,16 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="1" sqref="A9 I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="35.29"/>
   </cols>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -310,15 +310,15 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="1" sqref="A9 I8"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="35.29"/>
   </cols>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="57">
   <si>
     <t xml:space="preserve">route</t>
   </si>
@@ -85,9 +85,6 @@
     <t xml:space="preserve">Four Parks</t>
   </si>
   <si>
-    <t xml:space="preserve">reason</t>
-  </si>
-  <si>
     <t xml:space="preserve">Green Oaks - Little Road</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
   </si>
   <si>
     <t xml:space="preserve">Southwest Nature Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trail muddy during rainy season</t>
   </si>
   <si>
     <t xml:space="preserve">Stovall Park</t>
@@ -307,23 +301,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="35.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -504,31 +498,28 @@
       <c r="H7" s="1" t="n">
         <v>43882</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>44166</v>
@@ -536,16 +527,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>12</v>
@@ -562,16 +553,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>12</v>
@@ -588,7 +579,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -614,16 +605,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>12</v>
@@ -640,16 +631,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>12</v>
@@ -666,16 +657,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>12</v>
@@ -692,19 +683,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
@@ -718,7 +709,7 @@
     </row>
     <row r="16" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -730,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -741,22 +732,23 @@
       <c r="H16" s="1" t="n">
         <v>43882</v>
       </c>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
@@ -770,7 +762,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>9</v>
@@ -782,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
@@ -796,7 +788,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>9</v>
@@ -822,7 +814,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>9</v>
@@ -848,7 +840,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>9</v>
@@ -874,7 +866,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>9</v>
@@ -900,7 +892,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>9</v>
@@ -926,7 +918,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>9</v>
@@ -952,25 +944,25 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>43882</v>
@@ -978,7 +970,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>9</v>
@@ -1004,7 +996,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
@@ -1030,7 +1022,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
@@ -1053,13 +1045,10 @@
       <c r="H28" s="1" t="n">
         <v>44183</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>9</v>
@@ -1085,7 +1074,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>9</v>
@@ -1111,7 +1100,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>9</v>
@@ -1137,7 +1126,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>9</v>
@@ -1163,7 +1152,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>9</v>
@@ -1189,7 +1178,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>9</v>
@@ -1215,7 +1204,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>9</v>
@@ -1241,7 +1230,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>9</v>
@@ -1268,7 +1257,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="58">
   <si>
     <t xml:space="preserve">route</t>
   </si>
@@ -73,45 +73,45 @@
     <t xml:space="preserve">Enchanted Lakes</t>
   </si>
   <si>
+    <t xml:space="preserve">Fish Creek Linear Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four Parks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Oaks - Little Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kahaluu Beach Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kailua-Kona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America/Honolulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lako Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Sands Beach Park</t>
+  </si>
+  <si>
     <t xml:space="preserve">North Green Oaks</t>
   </si>
   <si>
-    <t xml:space="preserve">Linear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fish Creek Linear Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Four Parks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green Oaks - Little Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kahaluu Beach Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kailua-Kona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">America/Honolulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lako Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Sands Beach Park</t>
-  </si>
-  <si>
     <t xml:space="preserve">Old Airport Garden Loop</t>
   </si>
   <si>
@@ -142,22 +142,25 @@
     <t xml:space="preserve">Pioneer Trail</t>
   </si>
   <si>
+    <t xml:space="preserve">River Legacy North East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Legacy Park East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Legacy Park West</t>
+  </si>
+  <si>
     <t xml:space="preserve">River Legacy Shady</t>
   </si>
   <si>
-    <t xml:space="preserve">River Legacy North East</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River Legacy Park East</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River Legacy Park West</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rosie</t>
   </si>
   <si>
     <t xml:space="preserve">Dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosie – Stovall to Kane Parks</t>
   </si>
   <si>
     <t xml:space="preserve">Shorewood Drive</t>
@@ -301,13 +304,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ36"/>
+  <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
@@ -441,111 +444,111 @@
         <v>1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>44117</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>43882</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="1" t="n">
-        <v>43882</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>44166</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="E9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>43882</v>
@@ -556,22 +559,22 @@
         <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>43882</v>
@@ -582,22 +585,22 @@
         <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>43882</v>
@@ -608,25 +611,25 @@
         <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="H12" s="1" t="n">
-        <v>43882</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,13 +637,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>12</v>
@@ -660,22 +663,22 @@
         <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="E14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>43882</v>
@@ -832,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>44133</v>
@@ -855,10 +858,10 @@
         <v>12</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>43882</v>
@@ -881,10 +884,10 @@
         <v>12</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>43882</v>
@@ -907,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>43882</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,13 +936,13 @@
         <v>12</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>44144</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,42 +982,42 @@
         <v>15</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>43882</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>18</v>
+      <c r="B27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>43882</v>
@@ -1037,39 +1040,39 @@
         <v>12</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H28" s="1" t="n">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="n">
         <v>44183</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>43882</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,7 +1092,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>13</v>
@@ -1115,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>13</v>
@@ -1141,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>13</v>
@@ -1151,7 +1154,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="0" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -1167,7 +1170,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>13</v>
@@ -1177,7 +1180,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -1193,13 +1196,13 @@
         <v>12</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>44117</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,13 +1222,13 @@
         <v>12</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>43882</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,12 +1248,38 @@
         <v>12</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H36" s="1" t="n">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="1" t="n">
         <v>43882</v>
       </c>
     </row>

--- a/data/routes.xlsx
+++ b/data/routes.xlsx
@@ -307,10 +307,10 @@
   <dimension ref="A1:AMJ37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
